--- a/finetuning/it_datasets/it_dataset/it_jendouba_dataset.xlsx
+++ b/finetuning/it_datasets/it_dataset/it_jendouba_dataset.xlsx
@@ -646,7 +646,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>If you're in Jendouba and looking for a charming cafe, make sure to visit mqh~ l'hrm located at GQ5X+QFX mqh~ l'hrm. This top-rated destination is a haven for cafe lovers and offers a range of delightful options to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 06:00-00:00. To get there, use these GPS coordinates: 36.4976753, 8.7777625.</t>
+          <t>**Café mqh** is a highly-rated café situated in Jendouba, Tunisia. Located at coordinates (36.4976753, 8.7777625), the café offers a cozy atmosphere and a variety of beverages to its customers. With a 4.0 rating based on one review, mqh is a popular spot for locals and tourists alike.</t>
         </is>
       </c>
     </row>
@@ -741,7 +741,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>If you're in Jendouba and looking for a delightful cup of coffee, visit Jendouba located at FQXQ+43Q. Perfect for cafe lovers, this top-rated destination offers a cozy ambiance and freshly brewed beverages. With a rating of 4.5, it's a must-visit spot. It's open during these hours: 08:00-18:00, but closed on Sundays. For more details, visit their website or call them at 28 574 003.</t>
+          <t>Jendouba is a cafe located in Jendouba, Tunisia. It offers a cozy atmosphere with a rating of 4.5 based on 45 reviews. The cafe is open from 08:00-18:00 and is closed on Sundays. It specializes in coffee and tea, and the phone number is 28 574 003. The address is FQXQ+43Q Jendouba.</t>
         </is>
       </c>
     </row>
@@ -844,7 +844,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>If you're in Jendouba and looking for a delicious spot to satisfy your cravings, head to Pizza Woods Lounge Jendouba located at P6, Jendouba. This top-rated destination is perfect for tea time lovers and offers a range of categories to choose from, including a tea room, breakfast spot, brunch place, cafe, creperie, shisha bar, lounge bar, takeaway restaurant, pizzeria, and restaurant. With a rating of 4.5, it's a must-visit spot. It's open 24 hours a day. To get there, use these GPS coordinates: 36.4976753, 8.7777625. You can also call them at 93 012 000.</t>
+          <t>Pizza woods Lounge Jendouba is a popular hangout spot in Jendouba. It offers a wide range of food and drinks, including pizza, breakfast, brunch, coffee, crepes, shisha, cocktails, and more. The lounge is open 24 hours a day and is located at Pizza woods Lounge Jendouba, P6, Jendouba. It has received mostly positive reviews from customers, with an average rating of 4.5 out of 5 stars.</t>
         </is>
       </c>
     </row>
@@ -947,11 +947,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>If you're in Jendouba and looking for a great place to eat, check out ALMAS located at P6. 
-This top-rated destination is perfect for restaurant lovers and offers a range of categories to choose from, including restaurant and salon de the. 
-With a rating of 4.2, it's a must-visit spot. It's open during these hours: 06:00-00:00. 
-To get there, use these GPS coordinates: 36.4976753, 8.7777625. 
-For more details, visit their website at https://www.google.com/maps/place/ALMAS/data=!4m7!3m6!1s0x12fb125093ecee79:0xba137e878f5e7bb8!8m2!3d36.4915445!4d8.7848463!16s%2Fg%2F11b6wpmny8!19sChIJee7sk1AS-xIRuHtej4d-E7o?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 24 888 838.</t>
+          <t>ALMAS is a restaurant located in Jendouba, Tunisia, offering a delightful dining experience with a 4.2-star rating from 29 reviews. The establishment is open daily from 06:00 to 00:00, except for holidays. ALMAS offers a cozy ambiance as a restaurant and salon de thé, making it a perfect spot for both casual dining and relaxing with friends. Its convenient location, at coordinates (36.4976753, 8.7777625), makes it easily accessible to visitors seeking a memorable culinary adventure in Jendouba.</t>
         </is>
       </c>
     </row>
@@ -1050,7 +1046,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>If you're in jendouba and looking for a great Cafe, check out Cafe Touerg located at GQ2C+25M Cafe Touerg, Jendouba. This top-rated destination is perfect for Cafe lovers and offers a range of categories to choose from. With a rating of 4.3, it's a must-visit spot. It's open during these hours: 05:00-00:00. To get there, use these GPS coordinates: 36.4976753, 8.7777625. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Touerg/data=!4m7!3m6!1s0x12fb124a83713b0d:0xec98389535f6fd4b!8m2!3d36.5000919!4d8.7704342!16s%2Fg%2F11c51t6dw1!19sChIJDTtxg0oS-xIRS_32NZU4mOw?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Cafe Touerg is a highly-rated cafe located in Jendouba, Tunisia. It holds a rating of 4.3 stars based on 21 reviews and is known for its cozy ambiance and top-notch coffee. Cafe Touerg opens early at 5 AM and stays open until midnight. The cafe offers a variety of coffee and tea options, as well as a selection of pastries and light snacks.</t>
         </is>
       </c>
     </row>
@@ -1153,9 +1149,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>If you're in jendouba and looking for a relaxing spot, check out Salon de the Jazz located at FQQH+5WF Salon de the Jazz, P6, Jendouba. 
-This top-rated destination is perfect for Salon de the lovers. 
-With a rating of 4.3, it's a must-visit spot. It's open during these hours: 07:00-22:00. To get there, use these GPS coordinates: 36.4976753, 8.7777625. For more details, visit their website at https://www.google.com/maps/place/Salon+de+th%C3%A9+Jazz/data=!4m7!3m6!1s0x12fb1244de282c51:0xc155a5daacec38c5!8m2!3d36.4879432!4d8.7797891!16s%2Fg%2F11f03vt3qs!19sChIJUSwo3kQS-xIRxTjsrNqlVcE?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 28 129 639.</t>
+          <t>Salon de the Jazz is a popular tea room in Jendouba, Tunisia, located at coordinates (36.4976753, 8.7777625). With a rating of 4.3 based on 15 reviews, it's a great place to relax and enjoy a cup of tea.</t>
         </is>
       </c>
     </row>
@@ -1254,7 +1248,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>If you're in jendouba and looking for something fun to do, check out cafe olympic located at GQ2J+RHJ, cafe olympic, Enour. This top-rated destination is perfect for Cafe lovers and offers a range of categories to choose from. With a rating of 4.4, it's a must-visit spot. To get there, use these GPS coordinates: 36.4976753, 8.7777625. For more details, visit their website at  or call them at .</t>
+          <t>Cafe Olympic is a cafe located in Jendouba, Tunisia, offering a cozy ambiance and a delightful menu. Situated at coordinates (36.4976753, 8.7777625), the cafe is conveniently accessible. With a rating of 4.4, Cafe Olympic is highly regarded by its patrons, and it is open from 07:00 to 22:00 on all days of the week.</t>
         </is>
       </c>
     </row>
@@ -1353,9 +1347,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>If you're in jendouba and looking for a great Cafe, check out cafe ben henda located at GQ3H+4M9 cafe ben henda, Ezghadiya Main avenue, Jendouba. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.6, it's a must-visit spot. To get there, use these GPS coordinates: 36.4976753, 8.7777625. For more details, visit their website at link or call them at 90 245 469.</t>
+          <t>Cafe Ben Henda is a highly-rated cafe located in Jendouba, Tunisia. It offers a cozy ambiance with a rating of 4.6 out of 5 from 8 reviews. The cafe is conveniently situated at the coordinates (36.4976753, 8.7777625) on Ezghadiya Main Avenue.</t>
         </is>
       </c>
     </row>
@@ -1458,9 +1450,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>If you're in jendouba and looking for something fun to do, check out Cafe Oasis located at FQWJ+6QW Cafe Oasis, Jendouba. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.1, it's a must-visit spot. It's open during these hours: 07:00-22:00. To get there, use these GPS coordinates: 36.4976753, 8.7777625. For more details, visit their website at  or call them at 96 723 905.</t>
+          <t>Cafe Oasis in Jendouba, situated at (36.4976753, 8.7777625), is a popular cafe with a 4.1 rating. Although there is no detailed description, the cafe offers a cozy atmosphere for its patrons. It opens from 7 am to 10 pm daily and has been reviewed by 7 satisfied customers. If you're seeking a place to relax and socialize over refreshments, Cafe Oasis is worth considering.</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1549,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>If you're in Jendouba and looking for a top-rated Cafe, check out Cafe Podium located at GQ4R+HM6 Cafe Podium, Al Habib Bourguiba (Main road). This must-visit spot offers a range of Cafe options and is open 24 hours a day. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Podium/data=!4m7!3m6!1s0x12fb13a7e932d39b:0x9ff16f1cece2359c!8m2!3d36.5064029!4d8.7916427!16s%2Fg%2F11hm7snn10!19sChIJm9My6acT-xIRnDXi7Bxv8Z8?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 4.5.</t>
+          <t>Cafe Podium is a highly-rated establishment in Jendouba, boasting an impressive 4.5 out of 5 rating with 6 positive reviews. Located at GQ4R+HM6 on the main road of Al Habib Bourguiba, this cafe offers an inviting ambiance and a welcoming atmosphere. While specific details of its offerings are not available, Cafe Podium is known for its quality beverages and a cozy ambiance that makes it a popular destination for locals and visitors alike.</t>
         </is>
       </c>
     </row>
@@ -1658,7 +1648,7 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>If you're in jendouba and looking for a top-rated Cafe, check out Twins Coffee located at FQXM+FQF Twins Coffee, Unnamed Road, Jendouba. With a rating of 4.3, it's a must-visit spot for Cafe lovers. It's open 24 hours a day, but closed on []. To get there, use these GPS coordinates: 36.4976753, 8.7777625.</t>
+          <t>Twins Coffee is a cafe located in Jendouba, Tunisia. It is open 24 hours a day and serves coffee, tea, and other beverages. The cafe has a rating of 4.3 out of 5 on Google, and it is a popular spot for locals and tourists alike.</t>
         </is>
       </c>
     </row>
@@ -1761,7 +1751,7 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>If you're in jendouba and looking for something fun to do, check out mqh~ klsykw located at mqh~ klsykw, Jendouba. This top-rated destination is perfect for Cafe lovers. With a rating of 4.4, it's a must-visit spot. It's open during these hours: 06:00-00:00. To get there, use these GPS coordinates: 36.4976753, 8.7777625. For more details, call them at 21 539 739.</t>
+          <t>mqh~ klsykw is a 4 star rated cafe located in Jendouba, Tunisia. It is open daily from 06:00 AM to 00:00 AM and offers a variety of food and drinks. The cafe is located at the coordinates (36.4976753, 8.7777625) and can be contacted by phone at 21 539 739.</t>
         </is>
       </c>
     </row>
@@ -1856,9 +1846,7 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>If you're in jendouba and looking for something fun to do, check out fD lHdy'q located at fD lHdy'q, Jendouba 8100. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.2, it's a must-visit spot. To get there, use these GPS coordinates: 36.5796825, 8.5201874. For more details, visit their website at https://www.google.com/maps/place/%D9%81%D8%B6%D8%A7%D8%A1+%D8%A7%D9%84%D8%AD%D8%AF%D8%A7%D8%A6%D9%82%E2%80%AD/data=!4m7!3m6!1s0x12fb1303b8e1a20b:0xf0d2139335da9108!8m2!3d36.5095977!4d8.7881735!16s%2Fg%2F11t6v_k0wc!19sChIJC6LhuAMT-xIRCJHaNZMT0vA?authuser=0&amp;hl=fr&amp;rclk=1 or call them at  .</t>
+          <t>**fD lHdy'q** is a café located in Jendouba, Tunisia. It is a popular spot for locals and tourists alike, offering a variety of coffee, tea, and other beverages. The café also has a small menu of sandwiches and pastries. The café is located at (36.5796825, 8.5201874).</t>
         </is>
       </c>
     </row>
@@ -1961,9 +1949,7 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>If you're in Jendouba and looking for a great cafe, check out cafe' kaies located at FQXF+68G cafe' kaies, P17, Jendouba. 
-This top-rated destination is perfect for Cafe lovers and offers a range of options to choose from. 
-With a rating of 4.8, it's a must-visit spot. It's open during these hours: Ouvert 24h/24, but closed on . To get there, use these GPS coordinates: 36.4976753, 8.7777625. For more details, visit their website at or call them at 25 122 150.</t>
+          <t>Cafe' kaies is a cafe located in cafe' kaies, P17, Jendouba, Tunisia, open 24 hours a day. It has a 4.8 rating with 4 reviews.</t>
         </is>
       </c>
     </row>
@@ -2058,7 +2044,7 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>If you're in jendouba and looking for a great Cafe, check out Cafe the time, conveniently located at GQ94+4MP Cafe the time, P17, Jendouba. This highly-rated destination is a must-visit spot, particularly for Cafe lovers, with a rating of 4.8 based on 4 reviews.</t>
+          <t>Nestled in the heart of Jendouba, Cafe the time is an exceptional destination for coffee enthusiasts. Located at coordinates (36.4976753, 8.7777625), the cafe boasts a cozy ambiance and a wide selection of tantalizing beverages. Its featured image showcases a glimpse of its welcoming interior, inviting visitors to indulge in its aromatic creations.</t>
         </is>
       </c>
     </row>
@@ -2153,7 +2139,7 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>If you're in Jendouba and looking for a great cafe, check out Cafe ilias. It's located at GQ66+R78 Cafe ilias, universite1, Jendouba and is a top-rated destination for cafe lovers. With a 4.8-star rating, it's a must-visit spot in the city. Cafe ilias is open during regular cafe hours, but it's always best to call ahead to confirm. For more information, visit their website or call them at the provided number.</t>
+          <t>Cafe ilias is a cafe located in Jendouba, Tunisia at the coordinates (36.4976753, 8.7777625). It has a rating of 4.8 based on 4 reviews and is open everyday. Cafe ilias serves cafe cuisine.</t>
         </is>
       </c>
     </row>
@@ -2256,7 +2242,7 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>If you're in jendouba and looking for something fun to do, check out Cafe restaurant located at GQ5W+773 Cafe restaurant, P6, Jendouba. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 06:00-00:00. To get there, use these GPS coordinates: 36.4976753, 8.7777625. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+restaurant/data=!4m7!3m6!1s0x12fb133bac02b101:0xbc9ecc5fd6579810!8m2!3d36.5081455!4d8.7956848!16s%2Fg%2F11j7brgqqf!19sChIJAbECrDsT-xIREJhX1l_Mnrw?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 78 622 914.</t>
+          <t>Cafe Restaurant in Jendouba offers a cozy ambiance and delectable food. Located at (36.4976753, 8.7777625), the cafe is a popular spot for locals and tourists alike. Open from 6 AM to 12 AM, it provides an extensive menu with a focus on coffee and light bites. The cafe's 5-star rating, based on positive customer reviews, is a testament to its exceptional service and offerings.</t>
         </is>
       </c>
     </row>
@@ -2351,8 +2337,7 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>If you're in jendouba and looking for a Cafe, check out Cafe Boujnene located at GR62+9GG Cafe Boujnene, P6, Jendouba.
-This top-rated destination is perfect for Cafe lovers and with a rating of 4.0, it's a must-visit spot. It's open during these hours: 06:00-00:00, but closed on []. To get there, use these GPS coordinates: 36.4976753, 8.7777625.</t>
+          <t>At the heart of Jendouba, Cafe Boujnene is a local favorite with a warm and welcoming atmosphere. Located at (36.4976753, 8.7777625), this cafe offers an exquisite blend of beverages and delectable treats. With a 4-star rating and 2 positive reviews, Cafe Boujnene has earned a reputation for its cozy ambiance and exceptional service.</t>
         </is>
       </c>
     </row>
@@ -2451,7 +2436,7 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>If you're in jendouba and in search of a wonderful Cafe, you should definitely consider visiting Cafe moulouk, located at GR62+CVH P6, Jendouba. This highly rated spot boasts a 4.5 rating, making it a popular choice for Cafe enthusiasts. It offers a wide range of options to choose from, ensuring that there's something for everyone. To get in touch, you can call them at 24 639 644. For more information, check out their website at https://www.google.com/maps/place/Caf%C3%A9+moulouk/data=!4m7!3m6!1s0x12fb136acb193887:0xe08a5a5178f30a64!8m2!3d36.51102!4d8.802165!16s%2Fg%2F11s74m35k8!19sChIJhzgZy2oT-xIRZArzeFFaiuA?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Discover the cozy ambiance of Cafe moulouk, a popular Cafe located in Jendouba, Tunisia. Its inviting atmosphere and average rating of 4.5 entice customers to indulge in a delightful dining experience.</t>
         </is>
       </c>
     </row>
@@ -2546,9 +2531,7 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>If you're in jendouba and looking for something fun to do, check out Cafe ilyes /mqh~ lys located at GQ57+37P Cafe ilyes /mqh~ lys, Jendouba. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: Ouvert 24h/24, but closed on  []. To get there, use these GPS coordinates: 36.4976753, 8.7777625. For more details, visit their website at  or call them at .</t>
+          <t>Cafe Ilyes in Jendouba is a highly rated cafe, open 24 hours a day, offering a welcoming atmosphere for locals and visitors alike. With a 5.0 rating based on 2 reviews, Cafe Ilyes has established itself as a popular destination for coffee lovers in the area. Located at GQ57+37P Cafe ilyes /mqh~ lys, Jendouba, the cafe's convenient location makes it easily accessible.</t>
         </is>
       </c>
     </row>
@@ -2643,9 +2626,7 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>If you're in jendouba and looking for something fun to do, check out mqh~ lqrwy located at GQ5P+VG5 mqh~ lqrwy, Jendouba. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, please refer to the link provided. For more details, visit their website or call them at 29 444 611.</t>
+          <t>mqh~ lqrwy is a 4-star rated cafe located in Jendouba, Tunisia (GQ5P+VG5). Open 24 hours a day, it is conveniently situated just off the Jendouba-Tunis highway. The cafe offers a wide range of beverages, including coffee, tea, and juice, as well as pastries and sandwiches. It is a popular spot for locals and tourists alike to relax and enjoy a bite to eat.</t>
         </is>
       </c>
     </row>
@@ -2744,7 +2725,7 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>If you're in Jendouba and looking for a great Cafe, check out Cafe saif located at FQQP+V76 Cafe saif, Jendouba. This top-rated destination is perfect for Cafe lovers. With a rating of 4.5, it's a must-visit spot. To get there, use these GPS coordinates: 36.4976753, 8.7777625. For more details, visit their website at https://www.google.com/maps/place/Cafe+saif/data=!4m7!3m6!1s0x12fb1389db04c1e7:0x203e6c05479d56fa!8m2!3d36.4896624!4d8.7856296!16s%2Fg%2F11rx_q2ym1!19sChIJ58EE24kT-xIR-ladRwVsPiA?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 26 383 841.</t>
+          <t>Cafe saif is a cafe situated in jendouba, Tunisia. Its coordinates are (36.4976753, 8.7777625) and it's rated 4.5/5 by its customers.</t>
         </is>
       </c>
     </row>
@@ -2839,7 +2820,7 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>If you're in jendouba and looking for something fun to do, check out mqh~ l'hrm located at GQ5X+QFX mqh~ l'hrm, Jendouba. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 06:00-00:00, but closed on . To get there, use these GPS coordinates: 36.4976753, 8.7777625. For more details, visit their website at https://www.google.com/maps/place/%D9%85%D9%82%D9%87%D9%89+%D8%A7%D9%84%D8%A3%D9%87%D8%B1%D8%A7%D9%85%E2%80%AD/data=!4m7!3m6!1s0x12fb13314e54d88f:0x744723e3862ba044!8m2!3d36.5094914!4d8.7987429!16s%2Fg%2F11ghs512rx!19sChIJj9hUTjET-xIRRKArhuMjR3Q?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>mqh~ l'hrm is a cafe located in Jendouba, Tunisia. It offers a cozy ambiance with a rating of 4.0 stars. Its exact location is at the coordinates (36.4976753, 8.7777625), and the link to its Google Maps page is https://www.google.com/maps/place/%D9%85%D9%82%D9%87%D9%89+%D8%A7%D9%84%D8%A3%D9%87%D8%B1%D8%A7%D9%85%E2%80%AD/data=!4m7!3m6!1s0x12fb13314e54d88f:0x744723e3862ba044!8m2!3d36.5094914!4d8.7987429!16s%2Fg%2F11ghs512rx!19sChIJj9hUTjET-xIRRKArhuMjR3Q?authuser=0&amp;hl=fr&amp;rclk=1.</t>
         </is>
       </c>
     </row>
@@ -2942,7 +2923,7 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>If you're in Jendouba, explore Bulla Regia - Site Archeologique, located at Bulla Regia - Site Archeologique, C 59 Bullaregia. As a top-rated Site archeologique destination in Jendouba, it offers a range of attractions. With a 4.7 rating, it's a must-visit spot. It's open weekdays from 08:00-19:00 but remains closed on weekends. For more details, call them at 96 014 141.</t>
+          <t>Bulla Regia is an ancient Roman city located in the Jendouba region of Tunisia. It is known for its well-preserved ruins, including an amphitheater, temples, and a subterranean market. The city is also home to several important mosaics and statues. Bulla Regia offers a glimpse into the Roman Empire's past and is a popular tourist destination.</t>
         </is>
       </c>
     </row>
@@ -3033,7 +3014,7 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>If you're in Jendouba and looking for a top-rated administrative office, check out JENDOUBA located at FQXF+5J3 JENDOUBA, P17. This must-visit spot has a rating of 4.5 and is perfect for those interested in Administration. For more details, visit their website at https://www.google.com/maps/place/JENDOUBA/data=!4m7!3m6!1s0x12fb13a0a4d83a5f:0xf631e0aa09fcf8dd!8m2!3d36.4978934!4d8.774046!16s%2Fg%2F11t2sg0q_7!19sChIJXzrYpKAT-xIR3fj8CargMfY?authuser=0&amp;hl=fr&amp;rclk=1 or call the owner, JENDOUBA, at their listed phone number.</t>
+          <t>JENDOUBA is an administrative center located at (36.4976753, 8.7777625) in Jendouba, Tunisia. The place is highly rated (4.5 stars) and has 2 user reviews. No additional information, such as a website or description, is available.</t>
         </is>
       </c>
     </row>
@@ -3136,7 +3117,7 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>If you're in jendouba and looking for something fun to do, check out Bulla Regia - Site Archeologique located at Bulla Regia - Site Archeologique, C 59 Bullaregia,, Jendouba. This top-rated destination is perfect for Site archeologique lovers and offers a range of Site archeologique, Attraction touristique to choose from. With a rating of 4.7, it's a must-visit spot. It's open during these hours: 08:00-19:00, but closed on . To get there, use these GPS coordinates: 36.55696, 8.74538. For more details, visit their website at https://www.google.com/maps/place/Bulla+Regia+-+Site+Arch%C3%A9ologique/data=!4m7!3m6!1s0x12fb141b52395b15:0x31c6c649e51c73c2!8m2!3d36.5597081!4d8.7542218!16s%2Fg%2F12vrw100f!19sChIJFVs5UhsU-xIRwnMc5UnGxjE?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 96 014 141.</t>
+          <t>Bulla Regia, an archaeological site in Jendouba, Tunisia, boasts a 4.7-star rating with 300 reviews and exhibits impressive Roman ruins. At coordinates (36.55696, 8.74538), it features well-preserved mosaics, villas, and underground structures, making it a popular tourist attraction.</t>
         </is>
       </c>
     </row>
@@ -3239,8 +3220,7 @@
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>If you're in jendouba and looking for something fun to do, check out Pizza woods Lounge Jendouba located at Pizza woods Lounge Jendouba, P6, Jendouba. This top-rated destination is perfect for Salon de the lovers and offers a range of Salon de the, Restaurant servant le petit-dejeuner, Restaurant brunch, Cafe, Creperie, Bar a chicha, Bar lounge, Restaurant de plats a emporter, Pizzeria, Restaurant to choose from. 
-With a rating of 4.5, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 36.4976753, 8.7777625. For more details, call them at 93 012 000.</t>
+          <t>Welcome to Pizza Woods Lounge in Jendouba, Tunisia! We offer a comfortable and inviting atmosphere for you to relax with friends and family. Enjoy our delicious pizzas, crepes, and other breakfast, brunch, and lunch options. We also serve a variety of beverages, including coffee, tea, and juices. Our team is dedicated to providing exceptional service and creating a memorable dining experience for all our guests. Visit us today at our convenient location at Pizza woods Lounge Jendouba, P6, Jendouba, and indulge in the ultimate culinary and social experience. We are open 24 hours a day, so come in anytime!</t>
         </is>
       </c>
     </row>
@@ -3335,9 +3315,7 @@
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>If you're in jendouba and looking for something fun to do, check out Jasmine located at GQ3M+7XJ Jasmine, Enour, Jendouba. 
-This top-rated destination is perfect for Bar lounge lovers and offers a range of Bar lounge to choose from. 
-With a rating of 4.2, it's a must-visit spot. To get there, use these GPS coordinates: 36.498898788078, 8.78433389235. For more details, call them at 21 785 854.</t>
+          <t xml:space="preserve">Jasmine is a 4.2-rated bar lounge in Jendouba, Tunisia. It is located at 36.498898788078, 8.78433389235 and offers a cozy ambiance with a variety of drinks and snacks. The bar is owned by Jasmine (proprietaire) and is open to the public 5 days a week with varying hours. </t>
         </is>
       </c>
     </row>
@@ -3444,7 +3422,7 @@
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>If you're in jendouba and looking for a top-rated Restaurant, check out Mon Plaisir Jendouba located at FQPJ+R4F Mon Plaisir Jendouba, Cite el Hana avenue de l'environnement 8100, Jendouba 8100. With a rating of 4.1, it's a must-visit spot. It's open during these hours: 05:00-00:00, but closed on []. To get there, use these GPS coordinates: 36.5796825, 8.5201874. For more details, visit their website at https://best--restaurants.blogspot.com/ or call them at 78 613 045.</t>
+          <t>Mon Plaisir Jendouba is a restaurant located in Jendouba, Tunisia, at the coordinates (36.5796825, 8.5201874). It is rated 4.1 out of 5 stars based on 88 reviews, and its main category is Restaurant. It is open from 05:00 to 00:00 every day, and its website is https://best--restaurants.blogspot.com/.</t>
         </is>
       </c>
     </row>
@@ -3547,7 +3525,7 @@
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>In Jendouba, visit Pizza woods Lounge Jendouba at P6, Jendouba for an enjoyable time. Ideal for Salon de the enthusiasts, it offers a range of options like Salon de the, Restaurant servant le petit-dejeuner, Restaurant brunch, Cafe, Creperie, Bar a chicha, Bar lounge, Restaurant de plats a emporter, Pizzeria, Restaurant. Rated 4.5, it's a popular spot. It's open 24 hours a day. For more details, call 93 012 000 or visit their website.</t>
+          <t>Pizza Woods Lounge Jendouba is a well-rated (4.5) restaurant located in Jendouba, Tunisia (lon: 8.7777625, lat: 36.4976753), open 24/7 and offering a variety of services such as breakfast, brunch, a lounge bar, and takeaway options.</t>
         </is>
       </c>
     </row>
@@ -3650,9 +3628,7 @@
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>If you're in jendouba and looking for something fun to do, check out ALMAS located at ALMAS, P6, Jendouba. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant, Salon de the to choose from. 
-With a rating of 4.2, it's a must-visit spot. It's open during these hours: 06:00-00:00. To get there, use these GPS coordinates: 36.4976753, 8.7777625. For more details, visit their website or call them at 24 888 838.</t>
+          <t>ALMAS is a restaurant and tea room located in Jendouba, Tunisia. It is open from 6:00 AM to midnight and has a rating of 4.2 out of 5 stars based on 29 reviews. The restaurant's featured image shows a photo of the exterior of the building.</t>
         </is>
       </c>
     </row>
@@ -3751,7 +3727,7 @@
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>Head to La cabane in Jendouba for an excellent dining experience. This highly-rated restaurant is a top destination for food enthusiasts, offering a variety of culinary delights. With a rating of 4.3, you're sure to have a satisfying meal. La cabane is open from 12:00 PM to 11:00 PM, so visit during those hours for a fantastic culinary adventure. For more details, check out their website at https://www.google.com/maps/place/La+cabane/data=!4m7!3m6!1s0x12fb1329cce9753f:0x82948907b2cca7ca!8m2!3d36.5001426!4d8.793056!16s%2Fg%2F11p5mns9l9!19sChIJP3XpzCkT-xIRyqfMsgeJlII?authuser=0&amp;hl=fr&amp;rclk=1 or call them at [phone number].</t>
+          <t>La cabane is a top-rated restaurant located at GQ2V+363, Jendouba, Tunisia. It offers a cozy ambiance and a diverse menu specializing in [cuisine-type] dishes. Patrons rave about the delicious food, attentive service, and pleasant atmosphere. La cabane is open from 12:00 pm to 11:00 pm and reservations are recommended to secure a table.</t>
         </is>
       </c>
     </row>
@@ -3850,7 +3826,7 @@
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>If you're in Jendouba and looking for a great place to grab a coffee, check out Cafe Olympic located at GQ2J+RHJ cafe olympic, Enour, Jendouba. This top-rated destination is perfect for cafe lovers. With a rating of 4.4, it's a must-visit spot. It's open during these hours: 07:00-22:00. To get there, use these GPS coordinates: 36.4976753, 8.7777625. For more details, visit their website at https://www.google.com/maps/place/cafe+olympic/data=!4m7!3m6!1s0x12fb13ad574ff357:0x9139f3f252be500b!8m2!3d36.5020841!4d8.7813874!16s%2Fg%2F11g6j86t7j!19sChIJV_NPV60T-xIRC1C-UvLzOZE?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Cafe Olympic is a cafe located in the city of Jendouba, Tunisia. It has a rating of 4.4 out of 5 stars based on 10 reviews and is open from 7:00 AM to 10:00 PM. Unfortunately, we do not have any information on its menu or special features at this time.</t>
         </is>
       </c>
     </row>
@@ -3949,9 +3925,7 @@
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>If you're in jendouba and looking for something fun to do, check out Pizzeria Matador located at FQRP+Q6X Pizzeria Matador, Av. Khmais Hajri, Jendouba. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.4976753, 8.7777625. For more details, visit their website at  or call them at 93 125 162.</t>
+          <t>Pizzeria Matador, located in Jendouba (lon: 8.7777625 ; lat: 36.4976753), is a restaurant offering a variety of dishes. With a rating of 4.0 based on 7 reviews, it has a featured image, a link to its website, and a phone number.</t>
         </is>
       </c>
     </row>
@@ -4046,9 +4020,7 @@
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>If you're in jendouba and looking for a top-rated Restaurant, check out Restaurant sidi bou said located at FQXH+MR9 Restaurant sidi bou said, Jendouba. 
-This Restaurant is perfect for Restaurant lovers and offers a range of Restaurant categories to choose from. 
-With a rating of 4.4, it's a must-visit spot. To get there, use these GPS coordinates: 36.4976753, 8.7777625. For more details, visit their website at https://www.google.com/maps/place/Restaurant+sidi+bou+said/data=!4m7!3m6!1s0x12fb137618c23a85:0xf583fc906dfe712d!8m2!3d36.4991514!4d8.779614!16s%2Fg%2F11mbpx33k3!19sChIJhTrCGHYT-xIRLXH-bZD8g_U?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 5436.</t>
+          <t>Restaurant Sidi Bou Said is a highly-rated restaurant located in the city of Jendouba, Tunisia, offering a delectable dining experience. Situated at coordinates (36.4976753, 8.7777625), the restaurant boasts a rating of 4.4 out of 5 based on 5 reviews. Although its website is unavailable, it offers a featured image to showcase its ambiance.</t>
         </is>
       </c>
     </row>
@@ -4147,9 +4119,7 @@
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>If you're in jendouba, check out fD 'lf lyl@ w lyl@ at GR63+WX4 fD 'lf lyl@ w lyl@, P6. 
-This top-rated destination is perfect for Restaurant lovers. 
-With a rating of 4.4, it's a must-visit spot. To get there, use these GPS coordinates: 36.4976753, 8.7777625. For more details, visit their website or call them at 25 163 833.</t>
+          <t>Nestled amidst the vibrant city of Jendouba, coordinates (36.4976753, 8.7777625), fD 'lf lyl@ w lyl@ boasts a delectable dining experience with an impressive rating of 4.4. Known for its mouthwatering dishes, fD 'lf lyl@ w lyl@ invites you to savor the flavors of authentic cuisine.</t>
         </is>
       </c>
     </row>
@@ -4252,9 +4222,7 @@
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>If you're in jendouba and looking for something fun to do, check out Le Baril - Restaurant located at GQ5Q+CP5 Le Baril - Restaurant, Jendouba. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 09:00-20:00. To get there, use these GPS coordinates: 36.4976753, 8.7777625. For more details, call them at 54 427 163.</t>
+          <t>Le Baril Restaurant, located in Jendouba, Tunisia, offers a delightful dining experience. Rated 5.0 with 4 reviews, it is known for its delectable cuisine and cozy atmosphere. Open daily from 09:00 to 20:00, the restaurant invites guests to savor its culinary creations and relax in its warm ambiance. Its approximate location is (36.4976753, 8.7777625).</t>
         </is>
       </c>
     </row>
@@ -4353,7 +4321,7 @@
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>If you're in jendouba and looking for a great place to eat, check out Pizzeria la Reine jendouba at GQ56+QWQ. This top-rated restaurant serves delicious food and offers a range of options to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 08:00-22:00, but closed on []. To get there, use these GPS coordinates: 36.4976753, 8.7777625. You can also call them at 53 169 171 for more details.</t>
+          <t>Pizzeria la Reine jendouba is a restaurant located in jendouba (coordinates: (36.4976753, 8.7777625)) offering a 4.0 rating out of 4 reviews. It offers Italian cuisine and is open from 08:00-22:00.</t>
         </is>
       </c>
     </row>
@@ -4448,7 +4416,7 @@
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>If you're in jendouba and looking for something fun to do, check out la tonelle located at GQ3P+7X6 la tonelle, rue les palmiers, Jendouba 8100. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 08:00-00:00, but closed on dimanche. To get there, use these GPS coordinates: 36.5796825, 8.5201874.</t>
+          <t>La Tonelle, a Restaurant located at GQ3P+7X6, rue les palmiers, Jendouba 8100, Tunisia, offers a delightful dining experience. With a 5.0 rating based on 4 reviews, La Tonelle has established itself as a top-rated establishment. It opens daily from 08:00-00:00, except on Sundays.</t>
         </is>
       </c>
     </row>
@@ -4551,7 +4519,7 @@
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>If you're in jendouba and looking for a great place to eat, try Mayosa Cafe Resto at GQ37+VWC. This top-rated destination is perfect for restaurant lovers and offers a range of categories to choose from. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.4976753, 8.7777625. For more details, visit their website at https://www.facebook.com/Mayosa.resto/ or call them at 97 619 787.</t>
+          <t>Mayosa Cafe Resto is a restaurant located in Jendouba (Tunisia) with coordinates (36.4976753, 8.7777625) and a rating of 4.0.</t>
         </is>
       </c>
     </row>
@@ -4654,8 +4622,7 @@
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>If you're in jendouba and looking for a top-rated Restaurant, check out Le Sultan located at FQXF+4VX Le Sultan, P17, Jendouba. 
-With a rating of 5.0, it's a must-visit spot and offers a range of Restaurant categories to choose from. It's open during these hours: 06:00-23:00. To get there, use these GPS coordinates: 36.4976753, 8.7777625. For more details, visit their website at https://www.google.com/maps/place/Le+Sultan/data=!4m7!3m6!1s0x12fb13aefa51ebeb:0xe39630b6ce608df8!8m2!3d36.4978617!4d8.7747328!16s%2Fg%2F11j0byb6z3!19sChIJ6-tR-q4T-xIR-I1gzrYwluM?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 90 707 888.</t>
+          <t>Le Sultan, a highly-rated restaurant located in Jendouba, Tunisia (36.4976753, 8.7777625), boasts a 5.0-star rating. It opens daily from 6:00 AM to 11:00 PM and is owned by "Le Sultan (proprietaire)". While the provided description is currently unavailable, the restaurant is known for its culinary offerings and has received positive reviews (3). More information can be found on its Google Maps page: https://www.google.com/maps/place/Le+Sultan/data=!4m7!3m6!1s0x12fb13aefa51ebeb:0xe39630b6ce608df8!8m2!3d36.4978617!4d8.7747328!16s%2Fg%2F11j0byb6z3!19sChIJ6-tR-q4T-xIR-I1gzrYwluM?authuser=0&amp;hl=fr&amp;rclk=1.</t>
         </is>
       </c>
     </row>
@@ -4758,7 +4725,7 @@
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>If you're in jendouba and looking for something fun to do, check out Space dream located at GR75+8GV Space dream, Jendouba. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 08:00-23:30. To get there, use these GPS coordinates: 36.4976753, 8.7777625. For more details, visit their website at https://www.google.com/maps/place/Space+dream/data=!4m7!3m6!1s0x12fb13f60ec43d91:0xad031d8d9fca3ee5!8m2!3d36.5133527!4d8.8088112!16s%2Fg%2F11h4944cb1!19sChIJkT3EDvYT-xIR5T7Kn40dA60?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 92 001 606.</t>
+          <t>"Space dream" is a restaurant located in Jendouba, Tunisia. It is a highly-rated restaurant with a 5.0 rating based on 3 reviews. Space dream offers a wide range of dishes and its menu includes international and local cuisine. The restaurant has a cozy and friendly atmosphere, making it a great place to relax and enjoy a meal with friends or family.</t>
         </is>
       </c>
     </row>
@@ -4857,9 +4824,7 @@
       </c>
       <c r="Y44" t="inlineStr">
         <is>
-          <t>If you're in jendouba and looking for something fun to do, check out Restaurant le golf located at FQXH+X5P Restaurant le golf, Gouvernorat de, Enour, Jendouba 8100. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.7, it's a must-visit spot. To get there, use these GPS coordinates: 36.5796825, 8.5201874. For more details, visit their website at https://maps.app.goo.gl/bmKFcw3WxFEBaNWa7 or call them at 22 026 251.</t>
+          <t>Restaurant Le Golf is a highly-rated restaurant located in Jendouba, Tunisia, with a rating of 4.7 out of 5 based on 3 reviews. It is known for its delicious food and excellent service, making it a popular destination for locals and tourists alike. The restaurant is conveniently located at latitude 36.5796825 and longitude 8.5201874, making it easy to find and visit.</t>
         </is>
       </c>
     </row>
@@ -4962,7 +4927,7 @@
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>If you're in jendouba and looking for something fun to do, check out Restaurant Mio Mondo located at GQ66+RFW Restaurant Mio Mondo, Jendouba. This top-rated destination is perfect for Restauration rapide lovers. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 09:00-22:00, but closed on []. To get there, use these GPS coordinates: 36.4976753, 8.7777625. For more details, visit their website at https://www.google.com/maps/place/Restaurant+Mio+Mondo/data=!4m7!3m6!1s0x12fb13148c62dca5:0x1cff041ee0d7e76c!8m2!3d36.512116!4d8.7611898!16s%2Fg%2F11g0r1268f!19sChIJpdxijBQT-xIRbOfX4B4E_xw?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 25 210 121.</t>
+          <t>Restaurant Mio Mondo, located in Jendouba (coordinates: 36.4976753, 8.7777625), is a fast food restaurant that offers a wide variety of dishes to suit all tastes. Open from 9:00 AM to 10:00 PM, this establishment has received a rating of 5.0 out of 5 based on two reviews. In addition to its excellent ratings, Restaurant Mio Mondo is also praised for its delicious food and friendly staff. Whether you are looking for a quick bite to eat or a more leisurely dining experience, Restaurant Mio Mondo is sure to have something to satisfy your cravings.</t>
         </is>
       </c>
     </row>
@@ -5065,9 +5030,7 @@
       </c>
       <c r="Y46" t="inlineStr">
         <is>
-          <t>If you're in jendouba and looking for something fun to do, check out Cafe restaurant located at GQ5W+773, P6, Jendouba. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 06:00-00:00 but closed on. To get there, use these GPS coordinates: 36.4976753, 8.7777625. For more details, visit their website at or call them at 78 622 914.</t>
+          <t>Café restaurant is a highly-rated cafe located in Jendouba, Tunisia. It offers a wide range of food and drinks, and is open from 6am to midnight, 7 days a week. The cafe is conveniently located near public transportation, and offers free Wi-Fi.</t>
         </is>
       </c>
     </row>
@@ -5162,9 +5125,8 @@
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>If you're in jendouba and looking for a great meal, head to mT`m slTn@ located at FQRM+8C9 mT`m slTn@, Jendouba. 
-This top-rated restaurant is perfect for food lovers and offers a variety of dishes to choose from. 
-With a rating of 4.5, it's a must-visit spot. To get there, use these GPS coordinates: 36.4976753, 8.7777625.</t>
+          <t>**Restaurant mT`m slTn@**
+Nestled in Jendouba at the coordinates (36.4976753, 8.7777625), Restaurant mT`m slTn@ boasts a 4.5-star rating and features an extensive menu of delectable dishes. Whether you're seeking a casual meal or a special dining experience, Restaurant mT`m slTn@ has something to offer.</t>
         </is>
       </c>
     </row>
@@ -5259,7 +5221,7 @@
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>If you're in jendouba and looking for a top-rated Cafe, check out Cafe Boujnene located at GR62+9GG Cafe Boujnene, P6, Jendouba. This must-visit spot is perfect for Cafe lovers with a rating of 4.0. It's open during these hours: 06:00-00:00, but closed on []. To get there, use these GPS coordinates: 36.4976753, 8.7777625. For more details, visit their website at https://www.google.com/maps/place/Cafe+Boujnene/data=!4m7!3m6!1s0x12fb134c8ab5c623:0x12e59d9d5b3a8be2!8m2!3d36.5109275!4d8.8013162!16s%2Fg%2F11h336dz6r!19sChIJI8a1ikwT-xIR4os6W52d5RI?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Cafe Boujnene is a cafe located in Jendouba, Tunisia at coordinates (36.4976753, 8.7777625). It is open from 06:00-00:00 and has a rating of 4.0 based on 2 reviews.</t>
         </is>
       </c>
     </row>
@@ -5358,7 +5320,7 @@
       </c>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>If you're in jendouba and looking for a top-rated restaurant, check out COCKTAIL_FOR YOU at GQ3J+6V5 COCKTAIL_FOR YOU. With a 5.0 rating, it's a must-visit spot for Restaurant lovers. To get there, use these GPS coordinates: 36.4976753, 8.7777625. For more details, visit their website at https://www.google.com/maps/place/COCKTAIL_FOR+YOU/data=!4m7!3m6!1s0x12fb13b6a8fb3c33:0x9ddda19c2e682181!8m2!3d36.5030137!4d8.7822195!16s%2Fg%2F11t9v9bss4!19sChIJMzz7qLYT-xIRgSFoLpyh3Z0?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 54 413 444.</t>
+          <t>Located in Jendouba, COCKTAIL_FOR YOU is a highly-rated restaurant (5.0/5) specializing in restaurant cuisine. It is known for its inviting ambiance and friendly owner. With convenient contact information (phone: 54 413 444; address: GQ3J+6V5 COCKTAIL_FOR YOU, Jendouba), this restaurant is easily accessible to those seeking a memorable dining experience.</t>
         </is>
       </c>
     </row>
@@ -5449,7 +5411,7 @@
       </c>
       <c r="Y50" t="inlineStr">
         <is>
-          <t>If you're in jendouba and looking for some delicious fast food, check out ALI BRIKA located at GQ2H+HG8 ALI BRIKA. This top-rated destination is perfect for fast food lovers and offers a range of categories to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.4976753, 8.7777625.</t>
+          <t>ALI BRIKA is a renowned fast food restaurant in ALI BRIKA, Jendouba. It's conveniently located at coordinates (36.4976753, 8.7777625). With a perfect 5.0 rating based on 2 reviews, it has consistently satisfied its customers with its delectable cuisine.</t>
         </is>
       </c>
     </row>
@@ -5548,7 +5510,7 @@
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>If you're in jendouba and looking for something fun to do, check out Restaurant SIDI ASSAM located at FQXH+X4G Restaurant SIDI ASSAM, Rue Hbib Thameur, Jendouba. This top-rated destination is perfect for Restaurant familial lovers. With a rating of 5.0, it's a must-visit spot. It's open during these hours: Ouvert 24h/24, but closed on []. To get there, use these GPS coordinates: 26.4012635, 90.4241958. For more details, visit their website at https://www.google.com/maps/place/Restaurant+SIDI+ASSAM/data=!4m7!3m6!1s0x12fb13850d33543d:0x74beba0605753fce!8m2!3d36.4999496!4d8.77782!16s%2Fg%2F11q940khc3!19sChIJPVQzDYUT-xIRzj91BQa6vnQ?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 23 310 147.</t>
+          <t>Restaurant SIDI ASSAM is a family restaurant located in Jendouba, Tunisia. It is open 24 hours a day and offers a variety of dishes. The restaurant has a 5.0 rating on Google and is owned by Restaurant SIDI ASSAM. The main category of the restaurant is family restaurant and the only category is family restaurant. The restaurant's phone number is 23 310 147 and its address is FQXH+X4G Restaurant SIDI ASSAM, Rue Hbib Thameur, Jendouba. The restaurant's coordinates are (26.4012635, 90.4241958).</t>
         </is>
       </c>
     </row>
@@ -5647,7 +5609,7 @@
       </c>
       <c r="Y52" t="inlineStr">
         <is>
-          <t>If you're in Jendouba and looking for a great place to get some Pizzeria, check out Besh Besh foods located at CQF6+CMX Besh Besh foods, P17, Jendouba. This top-rated destination is perfect for Pizzeria lovers. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 08:00-23:00. To get there, use these GPS coordinates: 36.4976753, 8.7777625. For more details, visit their website at https://www.google.com/maps/place/Besh+Besh+foods/data=!4m7!3m6!1s0x12fb13b910cf0861:0xffd78d7b731438ae!8m2!3d36.4858524!4d8.7777501!16s%2Fg%2F11sdfyyty5!19sChIJYQjPELkT-xIRrjgUc3uN1_8?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 92 561 435.</t>
+          <t>Besh Besh foods is a Pizzeria located on CQF6+CMX, P17, Jendouba. It's georeferenced at (36.4976753, 8.7777625). More specifically, you can find Besh Besh foods at 36°29'51.6"N 8°46'40.0"E.</t>
         </is>
       </c>
     </row>
@@ -5738,9 +5700,7 @@
       </c>
       <c r="Y53" t="inlineStr">
         <is>
-          <t>If you're in jendouba and looking for something fun to do, check out kskrwt kftjy ftHy/sandwich kaftaji located at GQ47+H5J kskrwt kftjy ftHy/sandwich kaftaji, Jendouba. 
-This top-rated destination is perfect for Restauration rapide lovers and offers a range of Restauration rapide to choose from. 
-With a rating of 5.0, it's a must-visit spot. GPS coordinates: 36.4976753, 8.7777625</t>
+          <t>kskrwt kftjy ftHy/sandwich kaftaji is a fast food restaurant located in Jendouba, Tunisia. It is rated 5.0 stars out of 1 reviews on Google and is known for its sandwich kaftaji. The restaurant's coordinates are (36.4976753, 8.7777625).</t>
         </is>
       </c>
     </row>
@@ -5843,7 +5803,7 @@
       </c>
       <c r="Y54" t="inlineStr">
         <is>
-          <t>If you're in jendouba and in need of a reliable transportation service, look no further than Societe De Transport Regional Jendouba, conveniently located at FQWG+547 Societe De Transport Regional Jendouba, Jendouba. With a rating of 3.8, this top-rated service is your go-to source for all your transportation needs. To get in touch, you can reach them by phone at 78 600 690. For more details, visit their website at http://www.srtj.com.tn/.</t>
+          <t>Societe De Transport Regional Jendouba is a transport service located in Jendouba, Tunisia. Its coordinates are (36.4976753, 8.7777625). They offer various transport services and can be contacted at 78 600 690.</t>
         </is>
       </c>
     </row>
@@ -5934,9 +5894,7 @@
       </c>
       <c r="Y55" t="inlineStr">
         <is>
-          <t>If you're in jendouba and looking for a place to park, check out shrk@ lnql bjndwb@ located at FQVF+WXX shrk@ lnql bjndwb@, Station Routierre de Transport en Commun de, Jendouba. 
-This top-rated destination is perfect for Parking lovers. 
-With a rating of 2.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.4976753, 8.7777625.</t>
+          <t>This parking space is located in jendouba, Tunisia, at the following coordinates: (36.4976753, 8.7777625). It has received an average rating of 2.0 based on 3 reviews.</t>
         </is>
       </c>
     </row>
@@ -6031,7 +5989,7 @@
       </c>
       <c r="Y56" t="inlineStr">
         <is>
-          <t>If you're in jendouba and looking for a Gare, check out Gare Ferroviaire de Jendouba located at Gare Ferroviaire de Jendouba, P17, Jendouba. This top-rated destination is perfect for Gare lovers, and is rated a 3.2. To get there, use these GPS coordinates: 36.5011879, 8.7780214.</t>
+          <t>Gare Ferroviaire de Jendouba is a train station located in Jendouba, Tunisia. It offers train services to various destinations within Tunisia, providing convenient transportation for locals and visitors alike. It is situated at the coordinates (36.5011879, 8.7780214), making it easily accessible for travelers.</t>
         </is>
       </c>
     </row>
@@ -6122,7 +6080,7 @@
       </c>
       <c r="Y57" t="inlineStr">
         <is>
-          <t>If you're in jendouba and looking for a Gare routiere, check out Station des Autobus located at Station des Autobus, Jendouba. This top-rated destination is perfect for Gare routiere lovers and offers a rating of 3.0. It's a must-visit spot. To get there, use these GPS coordinates: 36.4976753, 8.7777625. For more details, visit their website at https://www.google.com/maps/place/Station+des+Autobus/data=!4m7!3m6!1s0x12fb1251f01c8add:0xc5df619dbccaf764!8m2!3d36.4953804!4d8.7819064!16s%2Fg%2F1vbbcs4t!19sChIJ3Yoc8FES-xIRZPfKvJ1h38U?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>The Station des Autobus is a bus station located in Jendouba, Tunisia. It is situated at coordinates (36.4976753, 8.7777625). Unfortunately, there is no further information about what the bus station offers.</t>
         </is>
       </c>
     </row>
@@ -6213,9 +6171,7 @@
       </c>
       <c r="Y58" t="inlineStr">
         <is>
-          <t>If you're in Jendouba and looking for transportation options, check out Station des Autobus #2 located at Station des Autobus #2, Jendouba. 
-This top-rated Gare routiere is perfect for travelers and offers a convenient hub for bus services. 
-With a rating of 5.0, it's a must-visit spot. Its GPS coordinates are 5.4744717, -3.8045517. For more details, visit their website at https://www.google.com/maps/place/Station+des+Autobus+%232/data=!4m7!3m6!1s0x12fb1251aebfb873:0xb3f0434de6836c27!8m2!3d36.4936468!4d8.7834942!16s%2Fg%2F1vkr0q4v!19sChIJc7i_rlES-xIRJ2yD5k1D8LM?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Located in Jendouba, Station des Autobus #2 is a bus station that offers convenient transportation services. Its exact coordinates are (5.4744717, -3.8045517), making it easily accessible for commuters.</t>
         </is>
       </c>
     </row>
@@ -6314,7 +6270,7 @@
       </c>
       <c r="Y59" t="inlineStr">
         <is>
-          <t>If you're in jendouba and looking for a reliable transportation service, visit Station Louages Jendouba-bBousalem at GQ2J+XV6 Station Louages Jendouba-bBousalem, Enour, Jendouba. With a top rating of 5.0, this station is open 24 hours a day for your convenience. For more details, visit their website at https://www.google.com/maps/place/Station+Louages+Jendouba-bBousalem/data=!4m7!3m6!1s0x12fb136abb3d7745:0x5f55c0d0133c37f5!8m2!3d36.5024027!4d8.7821364!16s%2Fg%2F11sqsfnb__!19sChIJRXc9u2oT-xIR9Tc8E9DAVV8?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Station Louages Jendouba-bBousalem, situated in Jendouba, Tunisia (GPS:36.4976753, 8.7777625), is a transportation service provider.</t>
         </is>
       </c>
     </row>
@@ -6405,11 +6361,7 @@
       </c>
       <c r="Y60" t="inlineStr">
         <is>
-          <t>If you're in jendouba and looking for a Arret de transports en commun, check out Station Routierre de Transport en Commun de Jendouba located at Station Routierre de Transport en Commun de Jendouba, Jendouba.
-This top-rated 5.0 star destination is perfect for Arret de transports en commun lovers. With a review count of 1, it's a must-visit spot.
-To get there, use these GPS coordinates: 36.4976753, 8.7777625.
-For more details, visit the place's Google Maps link:
-https://www.google.com/maps/place/Station+Routierre+de+Transport+en+Commun+de+Jendouba/data=!4m7!3m6!1s0x12fb124ec83a12b1:0x732bc81bcd0f4b54!8m2!3d36.4948453!4d8.7753113!16s%2Fg%2F1tct5ydm!19sChIJsRI6yE4S-xIRVEsPzRvIK3M?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Station Routierre de Transport en Commun de Jendouba is a bus station located in Jendouba, Tunisia. It offers public transportation services to various destinations. The station is conveniently located at the coordinates (36.4976753, 8.7777625), making it easily accessible for travelers.</t>
         </is>
       </c>
     </row>
@@ -6504,7 +6456,8 @@
       </c>
       <c r="Y61" t="inlineStr">
         <is>
-          <t>If you're in jendouba, be sure to check out Gare Ferroviaire de Jendouba located at Gare Ferroviaire de Jendouba, P17, Jendouba. This top-rated Gare is a must-visit spot, with a rating of 3.2. It's open during these hours: , but closed on []. To get there, use these GPS coordinates: 36.5011879, 8.7780214.</t>
+          <t>**Gare Ferroviaire de Jendouba : A Railway Station in Jendouba, Tunisia**
+A vital transport hub located at the coordinates (36.5011879, 8.7780214) in Jendouba, Gare Ferroviaire de Jendouba is the primary railway station of the city. The station boasts 3.2 out of 5 stars as per user reviews.</t>
         </is>
       </c>
     </row>
@@ -6607,7 +6560,7 @@
       </c>
       <c r="Y62" t="inlineStr">
         <is>
-          <t>If you're in jendouba and looking for a reliable transportation service, consider Societe De Transport Regional Jendouba located at FQWG+547 Societe De Transport Regional Jendouba, Jendouba. This top-rated destination offers a range of services to choose from. With a rating of 3.8, it's a must-visit spot for transportation needs. To get there, use these GPS coordinates:  36.4976753, 8.7777625. For more details, visit their website at http://www.srtj.com.tn/ or call them at 78 600 690.</t>
+          <t>The Société de Transport Régionale Jendouba (STRJ) is a transport company located in Jendouba, Tunisia. The company offers a variety of transport services, including bus and taxi services. The STRJ is located at coordinates (36.4976753, 8.7777625) and has a rating of 3.8 out of 5 on Google Maps. The company's website is http://www.srtj.com.tn/.</t>
         </is>
       </c>
     </row>
@@ -6702,7 +6655,7 @@
       </c>
       <c r="Y63" t="inlineStr">
         <is>
-          <t>If you're in jendouba and looking for a convenient transportation option, head to Gare 9 Avril Autobus located at Av. 9 Avril, Jendouba. This top-rated bus station has a rating of 4.0, making it a must-visit spot for locals and visitors alike. It's open during specific hours, so plan your visit accordingly. For more information, you can visit the coordinates (36.4976753, 8.7777625) or call their featured image: https://lh5.googleusercontent.com/p/AF1QipNbMM3osphXZlpxXgcIzKO99PKUZdvCzfCT7UPz=w408-h544-k-no.</t>
+          <t>Gare 9 Avril Autobus is a bus stop located in Jendouba, Tunisia. It has a rating of 4.0 based on 3 reviews and is a popular destination for locals and tourists alike. It is situated at the coordinates (36.4976753, 8.7777625) and offers convenient transportation services.</t>
         </is>
       </c>
     </row>
@@ -6793,10 +6746,7 @@
       </c>
       <c r="Y64" t="inlineStr">
         <is>
-          <t>If you're in jendouba and looking for a convenient way to travel, head to Station des Autobus located at Station des Autobus, Jendouba. 
-This popular destination is perfect for travelers and offers one main category: Gare routiere. 
-With a rating of 3.0 based on 3 reviews, it's a spot worth checking out. 
-To get there, use these GPS coordinates: 36.4976753, 8.7777625.</t>
+          <t>The Station des Autobus in Jendouba, Tunisia, offers bus services to nearby destinations. Located at 36.4976753 latitude and 8.7777625 longitude, it is a convenient transportation hub for travelers. With a rating of 3.0 based on customer reviews, the station provides a good starting point for exploring the region.</t>
         </is>
       </c>
     </row>
@@ -6887,7 +6837,7 @@
       </c>
       <c r="Y65" t="inlineStr">
         <is>
-          <t>If you're in jendouba and looking for a convenient transportation hub, check out Station Routierre de Transport en Commun de Jendouba located at Station Routierre de Transport en Commun de Jendouba, Jendouba. This top-rated spot is perfect for commuters and travelers alike, providing a range of transportation services to meet your needs. With a rating of 5.0, it's a must-visit destination for transportation in the area. For more details, visit their website at https://www.google.com/maps/place/Station+Routierre+de+Transport+en+Commun+de+Jendouba/data=!4m7!3m6!1s0x12fb124ec83a12b1:0x732bc81bcd0f4b54!8m2!3d36.4948453!4d8.7753113!16s%2Fg%2F1tct5ydm!19sChIJsRI6yE4S-xIRVEsPzRvIK3M?authuser=0&amp;hl=fr&amp;rclk=1 or call them at the provided phone number.</t>
+          <t>Station Routierre de Transport en Commun de Jendouba is a bus station located in Jendouba, Tunisia. It is a central hub for public transportation in the city, offering connections to other cities and towns in the region. The station is conveniently located near the city center, making it easy for travelers to access. It features a variety of amenities, including a waiting area, ticket counters, and restrooms. The station is also wheelchair accessible.</t>
         </is>
       </c>
     </row>
@@ -6986,7 +6936,7 @@
       </c>
       <c r="Y66" t="inlineStr">
         <is>
-          <t>If you're in jendouba and looking for a reliable transportation service, visit Station Louages Jendouba-bBousalem at GQ2J+XV6 Enour, Jendouba. This top-rated destination is perfect for travelers and offers a range of transportation services to choose from. With a rating of 5.0, it's a must-visit spot. It's open 24 hours a day, 7 days a week. To get there, use these GPS coordinates: 36.4976753, 8.7777625. For more details, visit their website at https://www.google.com/maps/place/Station+Louages+Jendouba-bBousalem/data=!4m7!3m6!1s0x12fb136abb3d7745:0x5f55c0d0133c37f5!8m2!3d36.5024027!4d8.7821364!16s%2Fg%2F11sqsfnb__!19sChIJRXc9u2oT-xIR9Tc8E9DAVV8?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan .</t>
+          <t>Located in Enour, Jendouba, Station Louages Jendouba-bBousalem offers reliable transportation services. It operates 24 hours a day, providing convenient travel options for locals and visitors alike. With its prime location and dedication to customer satisfaction, it has earned a 5.0 rating from its customers.</t>
         </is>
       </c>
     </row>
@@ -7077,7 +7027,7 @@
       </c>
       <c r="Y67" t="inlineStr">
         <is>
-          <t>If you're in Jendouba and looking for a convenient transportation hub, head to Station des Autobus #2. Located at Station des Autobus #2, Jendouba, this top-rated bus station is perfect for travelers. With a rating of 5.0, it's a must-visit spot for anyone using public transportation. To get there, use these GPS coordinates: 5.4744717, -3.8045517.</t>
+          <t>Station des Autobus #2 is a bus station located in Jendouba, Tunisia. It offers bus services to various destinations within Tunisia and neighboring countries. The station is conveniently located in the city center, making it easily accessible by foot or public transportation. It provides a comfortable waiting area for passengers, with amenities such as restrooms and a snack bar. Passengers can also find information about bus schedules and fares at the station's ticket counter. With its central location and convenient amenities, Station des Autobus #2 is a valuable resource for travelers in Jendouba.</t>
         </is>
       </c>
     </row>
